--- a/medicine/Sexualité et sexologie/Sidérodromophilie/Sidérodromophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Sidérodromophilie/Sidérodromophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sid%C3%A9rodromophilie</t>
+          <t>Sidérodromophilie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sidérodromophilie, serait une paraphilie, en lien avec le ferroviaire, les trains et les chemins de fer[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sidérodromophilie, serait une paraphilie, en lien avec le ferroviaire, les trains et les chemins de fer.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sid%C3%A9rodromophilie</t>
+          <t>Sidérodromophilie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Exemples dans les arts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une nouvelle de Guy de Maupassant, justement appelée Idylle, montre une nourrice encombrée de sa lactation importante et qu'un voyageur soulage en la tétant.
 La même scène se retrouve dans le film Les Valseuses (Bertrand Blier, 1974) alors qu'Alphonse Allais a écrit plusieurs textes sur ce thème.
-La chanson de Michel Delpech L'Amour en wagon-lit (1972), qu'il a reprise en duo avec Clarika dans son album Michel Delpech &amp;... (2006)[2], est entièrement consacrée au thème de son titre.
+La chanson de Michel Delpech L'Amour en wagon-lit (1972), qu'il a reprise en duo avec Clarika dans son album Michel Delpech &amp;... (2006), est entièrement consacrée au thème de son titre.
 « La trépidation excitante des trains / Vous glisse des désirs dans la moelle des reins. » Alphonse Allais</t>
         </is>
       </c>
